--- a/NTLA.xlsx
+++ b/NTLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0217AA-1FF6-4486-8DE0-8350EA3D86C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E05A4B0-4DD2-498D-9C95-B42877FC8A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="480" windowWidth="22200" windowHeight="14805" activeTab="5" xr2:uid="{E9F1FD9E-614C-4E2D-8181-099819EFB62D}"/>
+    <workbookView xWindow="2520" yWindow="795" windowWidth="22200" windowHeight="14685" xr2:uid="{E9F1FD9E-614C-4E2D-8181-099819EFB62D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -142,15 +142,9 @@
     <t>NTLA-2002 (Lonvoguran Ziclumeran)</t>
   </si>
   <si>
-    <t>CRISPR knockout KLKB1</t>
-  </si>
-  <si>
     <t>NTLA-2001 (Nexiguran Ziclumeran)</t>
   </si>
   <si>
-    <t>CRISPR inactivate TTR</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
@@ -164,6 +158,12 @@
   </si>
   <si>
     <t>Physiochemistry</t>
+  </si>
+  <si>
+    <t>CRISPR KO KLKB1</t>
+  </si>
+  <si>
+    <t>CRISPR KO TTR</t>
   </si>
 </sst>
 </file>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8052AE-AD06-4029-A946-C71D003073BB}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -727,7 +727,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F3" s="17">
         <v>1</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
@@ -755,7 +755,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -831,6 +831,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="9"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
@@ -951,10 +952,10 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="XEV3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="XFC2" sqref="XFC2"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1096,12 +1097,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1116,7 +1117,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1126,12 +1127,12 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF32F420-CE3C-41F0-9101-245AB8005084}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1163,12 +1164,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1183,7 +1184,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1193,12 +1194,12 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
